--- a/Data/Reports.xlsx
+++ b/Data/Reports.xlsx
@@ -1,32 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thhllc-my.sharepoint.com/personal/bellian_otieno_griffinglobaltech_com/Documents/Documents/UiPath/OnboardingReporter/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC104891B95D4D305ADE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A109E3D-7013-4EB8-AF16-47FF6D04D894}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-16470" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Onboarding Reporter" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Onboarding Reporter" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>Successful_Transactions</x:t>
   </x:si>
@@ -38,23 +26,25 @@
   </x:si>
   <x:si>
     <x:t>Average_Processing_Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Processing_Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avg_Processing_Time</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -72,32 +62,38 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -112,44 +108,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -176,15 +172,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -211,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -223,157 +217,181 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:D3"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -386,37 +404,19 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="n">
-        <x:v>720</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="n">
-        <x:v>685</x:v>
-      </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="n">
-        <x:v>825</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="n">
-        <x:v>685</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8">
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -427,32 +427,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>685</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="n">
-        <x:v>870</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="n">
-        <x:v>685</x:v>
+        <x:v>603</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="F4" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="n">
-        <x:v>915</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="n">
-        <x:v>685</x:v>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>603</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>

--- a/Data/Reports.xlsx
+++ b/Data/Reports.xlsx
@@ -1,100 +1,487 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Onboarding Reporter" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thhllc-my.sharepoint.com/personal/bellian_otieno_griffinglobaltech_com/Documents/Documents/UiPath/OnboardingReporter/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_4A2FC902E1850384F6CBA52BADF7EE3B1C4E96F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6561A0E0-3804-4885-BB6D-6BD066746584}"/>
+  <bookViews>
+    <workbookView xWindow="3420" yWindow="-12930" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Onboarding Reporter" sheetId="2" r:id="rId1"/>
+    <sheet name=" Reports" sheetId="5" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <x:si>
-    <x:t>Successful_Transactions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Business_Exceptions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>System_Exceptions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average_Processing_Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Processing_Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Avg_Processing_Time</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Successful_Transactions</t>
+  </si>
+  <si>
+    <t>Business_Exceptions</t>
+  </si>
+  <si>
+    <t>System_Exceptions</t>
+  </si>
+  <si>
+    <t>Average_Processing_Time</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Processing_Time</t>
+  </si>
+  <si>
+    <t>Avg_Processing_Time</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ProcessingTime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>' Reports'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processing_Time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avg_Processing_Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>' Reports'!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-313C-47CF-A0F2-6CD8DCBA7BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="108826095"/>
+        <c:axId val="108826575"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="108826095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108826575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108826575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108826095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ProcessingTime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>' Reports'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processing_Time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avg_Processing_Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>' Reports'!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCBA-4CAA-8AF8-187D2DD0DFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1415312063"/>
+        <c:axId val="1415315423"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1415312063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1415315423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1415315423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1415312063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B6F860-84CA-AD04-44D2-27132F10F1F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B180CD62-BE06-1A74-5686-9822E4EC9B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,82 +768,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D3"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>603</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="A15" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="A16" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="n">
-        <x:v>720</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="n">
-        <x:v>603</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>720</v>
+      </c>
+      <c r="C2">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/Reports.xlsx
+++ b/Data/Reports.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thhllc-my.sharepoint.com/personal/bellian_otieno_griffinglobaltech_com/Documents/Documents/UiPath/OnboardingReporter/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_D33AAA244D350EDADEABB42BAD8D86BFA3FC9B28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA595BA-91AA-4E6B-BEAF-4A6269C638BF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_B136AA244DC588FA23B0A181804CA70F63FEAA9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58710577-E6C2-41ED-9368-3F2264DB433D}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16470" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Onboarding Reporter" sheetId="2" r:id="rId1"/>
-    <sheet name=" Reports" sheetId="5" r:id="rId2"/>
+    <sheet name="Reports" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -132,17 +132,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Onboarding Reporter'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Successful_Transactions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -154,21 +143,44 @@
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Onboarding Reporter'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Successful_Transactions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Business_Exceptions</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>System_Exceptions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Onboarding Reporter'!$A$2</c:f>
+              <c:f>'Onboarding Reporter'!$A$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -176,109 +188,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6659-4B65-A274-B26EF6F2627E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Onboarding Reporter'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Business_Exceptions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="1"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Onboarding Reporter'!$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6659-4B65-A274-B26EF6F2627E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Onboarding Reporter'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>System_Exceptions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="1"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Onboarding Reporter'!$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6659-4B65-A274-B26EF6F2627E}"/>
+              <c16:uniqueId val="{00000001-7A06-4186-90B4-553BCAFDEA86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -297,16 +207,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -372,16 +272,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>' Reports'!$A$1:$C$1</c:f>
+              <c:f>Reports!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ID</c:v>
+                  <c:v>Processing_Time</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Processing_Time</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Avg_Processing_Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -389,17 +286,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Reports'!$A$2:$C$2</c:f>
+              <c:f>Reports!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>605</c:v>
                 </c:pt>
               </c:numCache>
@@ -407,7 +301,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F4FC-44BC-9C87-3E616904C2EF}"/>
+              <c16:uniqueId val="{00000001-9686-4157-9EEB-A212A11C2337}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -420,11 +314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="226439888"/>
-        <c:axId val="226437968"/>
+        <c:axId val="1233502223"/>
+        <c:axId val="1247207343"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="226439888"/>
+        <c:axId val="1233502223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226437968"/>
+        <c:crossAx val="1247207343"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -442,7 +336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226437968"/>
+        <c:axId val="1247207343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226439888"/>
+        <c:crossAx val="1233502223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -486,22 +380,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B19B0F-D7C9-09BE-9F4B-ABD620CF449E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C58B29-889C-833A-2C96-B1019B1924E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -542,7 +436,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95752BD8-5658-AE3B-32E2-A6D066013F5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FCE013-663F-D69B-9B2D-E6B80A094188}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -564,12 +458,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BFE4A99-7D4E-4355-98C8-218E042AD475}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{3BFE4A99-7D4E-4355-98C8-218E042AD475}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF79AF98-8DB1-43BE-9D77-412FBA69D7C7}" name="Table2" displayName="Table2" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{EF79AF98-8DB1-43BE-9D77-412FBA69D7C7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{86D5D7FC-FA3C-4ABA-A40D-8EF89D0217B2}" name="Successful_Transactions"/>
-    <tableColumn id="2" xr3:uid="{EED409BA-F175-4F31-8946-516D991B1AF4}" name="Business_Exceptions"/>
-    <tableColumn id="3" xr3:uid="{3FAA7797-4751-4C6B-84DE-814347C2B67B}" name="System_Exceptions"/>
+    <tableColumn id="1" xr3:uid="{AB294EE0-4690-4BED-AF69-A0D4F0450726}" name="Successful_Transactions"/>
+    <tableColumn id="2" xr3:uid="{8EDDB6D8-E1BE-4B1A-94C8-491FEFE7650B}" name="Business_Exceptions"/>
+    <tableColumn id="3" xr3:uid="{B035CEEA-25DD-40D3-8C4E-1D31CD927CA7}" name="System_Exceptions"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F0A93B-E2F4-4D63-B675-80AE4267E99E}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{95F0A93B-E2F4-4D63-B675-80AE4267E99E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7113A5BA-3265-4ECB-9931-483E0221BC2B}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{26B4B1C3-616F-4F26-94CD-9154098AA42B}" name="Processing_Time"/>
+    <tableColumn id="3" xr3:uid="{A345AB49-C88E-4D36-B452-485F4CE32680}" name="Avg_Processing_Time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -909,6 +815,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -935,5 +845,8 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Data/Reports.xlsx
+++ b/Data/Reports.xlsx
@@ -768,7 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Data/Reports.xlsx
+++ b/Data/Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thhllc-my.sharepoint.com/personal/bellian_otieno_griffinglobaltech_com/Documents/Documents/UiPath/OnboardingReporter/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_5DCC2A00047589CC0D31AC81804FBF8B06C65B98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A31CA3B-618F-4414-B810-E0674863B192}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_50C1C82F0A7589CC0D31AC81804FBF8BD64F3553" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F71ED4-8EFE-4FE7-9A3E-8C3FE0EDA75C}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="-12855" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,20 +189,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-33A0-4712-9689-E357083D5D60}"/>
+              <c16:uniqueId val="{00000001-4A31-4578-8556-6616691887FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -312,7 +312,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F236-476A-A353-A4F6C99E80B4}"/>
+              <c16:uniqueId val="{00000002-DA1C-4011-A087-6F543E69954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -348,7 +348,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F236-476A-A353-A4F6C99E80B4}"/>
+              <c16:uniqueId val="{00000003-DA1C-4011-A087-6F543E69954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -361,11 +361,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1307822079"/>
-        <c:axId val="1307811999"/>
+        <c:axId val="2041778464"/>
+        <c:axId val="2041768864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1307822079"/>
+        <c:axId val="2041778464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1307811999"/>
+        <c:crossAx val="2041768864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -383,7 +383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1307811999"/>
+        <c:axId val="2041768864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1307822079"/>
+        <c:crossAx val="2041778464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -442,7 +442,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC72866-0325-44A3-797C-54E7CF1B1261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B364CE9-1702-74CB-F251-F6958668C2B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -483,7 +483,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B3E0E3-9FB3-92E4-D374-8F1FD0B50AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1A6557-FABF-7DDC-1D92-376CC6D21907}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,26 +509,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12ED22AB-0488-47C9-B528-6B0B272D8B3F}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{12ED22AB-0488-47C9-B528-6B0B272D8B3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B268B68D-B8FE-4C9B-A662-31DE34C6CA01}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{B268B68D-B8FE-4C9B-A662-31DE34C6CA01}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C564DDC6-9C4F-41F4-9711-07D3D7D35A77}" name="Successful_Transactions"/>
-    <tableColumn id="2" xr3:uid="{0FB9647A-F2FC-41C2-A757-3F16C4C9C92C}" name="Business_Exceptions"/>
-    <tableColumn id="3" xr3:uid="{F303F064-15A8-4FB5-B282-52603FBD9838}" name="System_Exceptions"/>
-    <tableColumn id="4" xr3:uid="{71D85ADA-9C57-4280-81F3-6040AB6830D7}" name="Transaction_Start_Time" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D0B80F3C-EC32-4536-9F8F-8158459D0DB7}" name="Transaction_End_Time" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8A4D6FB1-541C-454A-8ADB-AE92F3329F9E}" name="Successful_Transactions"/>
+    <tableColumn id="2" xr3:uid="{CD72562F-F6F5-4941-8B03-C79A978F9027}" name="Business_Exceptions"/>
+    <tableColumn id="3" xr3:uid="{B4087C96-80E4-46E6-8711-564D7F5FD6C9}" name="System_Exceptions"/>
+    <tableColumn id="4" xr3:uid="{ACAB4BD3-5B6F-4EC9-8655-F01E09EF0ADE}" name="Transaction_Start_Time" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{CEAF9648-C640-4BD1-BF48-1D71A4013127}" name="Transaction_End_Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1FB3F47-312E-4A35-90B8-2FE886601125}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{B1FB3F47-312E-4A35-90B8-2FE886601125}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE4E79AD-913D-4F45-A6CE-03F731B9B222}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{EE4E79AD-913D-4F45-A6CE-03F731B9B222}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1F10DD11-5FAB-4AE5-97E6-296240C46BC2}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{A932ED2F-5B81-4BF2-A629-897446012903}" name="Processing_Time"/>
-    <tableColumn id="3" xr3:uid="{54922066-0798-4681-B831-855EA493FCE2}" name="Avg_Processing_Time"/>
+    <tableColumn id="1" xr3:uid="{A7DD7147-7D2A-434B-9657-5B6C2BB4DDEB}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{A242FC89-BF63-4223-AA90-A9AF7002ACC4}" name="Processing_Time"/>
+    <tableColumn id="3" xr3:uid="{243114E3-B312-4057-BB85-EB9F7853DB15}" name="Avg_Processing_Time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -851,13 +851,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>45371.416666666701</v>

--- a/Data/Reports.xlsx
+++ b/Data/Reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thhllc-my.sharepoint.com/personal/bellian_otieno_griffinglobaltech_com/Documents/Documents/UiPath/OnboardingReporter/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_50C1C82F0A7589CC0D31AC81804FBF8BD64F3553" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F71ED4-8EFE-4FE7-9A3E-8C3FE0EDA75C}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_9FEFC81B8E7589CC0D31AC81804FBF8B864933A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B008A05E-D2F6-42ED-855E-5791C431CB81}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="-12855" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="2800" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Onboarding Reporter" sheetId="2" r:id="rId1"/>
@@ -202,7 +202,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4A31-4578-8556-6616691887FF}"/>
+              <c16:uniqueId val="{00000001-4084-4D47-9B17-34819069213A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -312,7 +312,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DA1C-4011-A087-6F543E69954E}"/>
+              <c16:uniqueId val="{00000002-75E2-4B29-A0E4-A5A121F76DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -348,7 +348,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DA1C-4011-A087-6F543E69954E}"/>
+              <c16:uniqueId val="{00000003-75E2-4B29-A0E4-A5A121F76DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -361,11 +361,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2041778464"/>
-        <c:axId val="2041768864"/>
+        <c:axId val="736560383"/>
+        <c:axId val="736560863"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2041778464"/>
+        <c:axId val="736560383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2041768864"/>
+        <c:crossAx val="736560863"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -383,7 +383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2041768864"/>
+        <c:axId val="736560863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2041778464"/>
+        <c:crossAx val="736560383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -427,22 +427,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B364CE9-1702-74CB-F251-F6958668C2B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0B7A16-02EE-5ABB-46B0-6AB2A45516E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -468,22 +468,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1A6557-FABF-7DDC-1D92-376CC6D21907}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9730BDC2-906C-8B1C-AB0E-F0878513CE5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,26 +509,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B268B68D-B8FE-4C9B-A662-31DE34C6CA01}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{B268B68D-B8FE-4C9B-A662-31DE34C6CA01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6DBC4329-6D40-459E-BF69-ED1F3FC45ED4}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{6DBC4329-6D40-459E-BF69-ED1F3FC45ED4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8A4D6FB1-541C-454A-8ADB-AE92F3329F9E}" name="Successful_Transactions"/>
-    <tableColumn id="2" xr3:uid="{CD72562F-F6F5-4941-8B03-C79A978F9027}" name="Business_Exceptions"/>
-    <tableColumn id="3" xr3:uid="{B4087C96-80E4-46E6-8711-564D7F5FD6C9}" name="System_Exceptions"/>
-    <tableColumn id="4" xr3:uid="{ACAB4BD3-5B6F-4EC9-8655-F01E09EF0ADE}" name="Transaction_Start_Time" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{CEAF9648-C640-4BD1-BF48-1D71A4013127}" name="Transaction_End_Time" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3D6F5C91-E308-4A06-B896-11A2E6B8490C}" name="Successful_Transactions"/>
+    <tableColumn id="2" xr3:uid="{CA7E0A47-07A0-4D25-B2CF-075BA256DDD1}" name="Business_Exceptions"/>
+    <tableColumn id="3" xr3:uid="{EB8FEAFC-9284-4861-9BE2-F5ADAE870FDF}" name="System_Exceptions"/>
+    <tableColumn id="4" xr3:uid="{15986BDD-4AB5-4954-8FE5-F77114740D38}" name="Transaction_Start_Time" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{302533DA-929B-4490-8D8F-7A3893283E44}" name="Transaction_End_Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE4E79AD-913D-4F45-A6CE-03F731B9B222}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{EE4E79AD-913D-4F45-A6CE-03F731B9B222}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86341773-40E6-46F9-8517-A17600A4F3DB}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{86341773-40E6-46F9-8517-A17600A4F3DB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7DD7147-7D2A-434B-9657-5B6C2BB4DDEB}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{A242FC89-BF63-4223-AA90-A9AF7002ACC4}" name="Processing_Time"/>
-    <tableColumn id="3" xr3:uid="{243114E3-B312-4057-BB85-EB9F7853DB15}" name="Avg_Processing_Time"/>
+    <tableColumn id="1" xr3:uid="{AB32EAE4-EF68-4E23-AB12-1B2E89326F1B}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{0F053903-58E4-4C4C-A58B-7F6A1F6410CB}" name="Processing_Time"/>
+    <tableColumn id="3" xr3:uid="{E49A087C-DE07-43D7-A8BF-B5E475EF0EA1}" name="Avg_Processing_Time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -825,11 +825,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -868,9 +868,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -883,8 +884,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,9 +923,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>